--- a/docentes/Ortega Valle Manuel Estadisticos 2020.xlsx
+++ b/docentes/Ortega Valle Manuel Estadisticos 2020.xlsx
@@ -1087,7 +1087,7 @@
         <v>10</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1110,7 +1110,7 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
